--- a/bus_202/data/group_3_2.xlsx
+++ b/bus_202/data/group_3_2.xlsx
@@ -1,32 +1,267 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrah\Box\Justin\Teaching\2025 Winter BUS 202\Group Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC36F43B-F36D-40D1-8C99-EE51C8CDBC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GRAND SPREADSHEET" sheetId="1" r:id="rId1"/>
+    <sheet name="DIVISION SHEET - SOCIAL MEDIA U" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>e-cigarette</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>social media usage</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>depression rate</t>
+  </si>
+  <si>
+    <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>short sleep prevalence</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="FkGroteskNeue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;MS sans serif&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="KaTeX_Main"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,10 +272,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +295,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,116 +337,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -321,22 +529,1889 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.66477272727272729</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.11764705882352938</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.7166375822928295E-2</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.4829545454545453</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.19819819819819823</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.47798742138364791</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.0374729082385143E-2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.36931818181818171</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.52941176470588247</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.39639639639639646</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3836477987421385</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.8310518643787582E-2</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.7954545454545453</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.51351351351351349</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.62264150943396224</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.7467616226032287E-2</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.22159090909090909</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.32704402515723291</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.9499560366071837E-2</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.53409090909090906</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.3423423423423424</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.7735849056603869E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.1262880805679287E-2</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.42613636363636348</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.9099099099099072E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.40251572327044022</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.9951787997562079E-2</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.34090909090909077</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.45911949685534575</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.9010027504926119E-2</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.21022727272727268</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.14414414414414412</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.55345911949685522</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.38068181818181823</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.27927927927927926</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.55345911949685522</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.2986848946202782E-2</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.38235294117647067</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.38738738738738748</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.0138710513027814E-3</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.69318181818181823</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.20125786163522033</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.6874374942567227E-2</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.33522727272727271</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.76470588235294124</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.3063063063063085E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.42138364779874238</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.20845185445254338</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.7727272727272726</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.31531531531531531</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.54088050314465419</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.3887756764807579E-2</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.3977272727272726</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.19819819819819823</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.26415094339622663</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.1946338021411823E-2</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.31531531531531531</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.42138364779874238</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.5855938512315987E-2</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.92045454545454553</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.64705882352941169</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.52252252252252263</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.60377358490566047</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.4135414661058296E-2</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.77840909090909094</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.52252252252252263</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.66037735849056611</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.922339291428129E-2</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.78977272727272718</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.20588235294117652</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.14414414414414412</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.21383647798742131</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.7641028459942947E-3</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.32954545454545447</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.54716981132075493</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.14239927323480847</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.44318181818181807</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9.00900900900901E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.20125786163522033</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.5568109349648387E-2</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.69886363636363624</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.64705882352941169</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.40251572327044022</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.0959299019896298E-2</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.21621621621621626</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.8867924528301935E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.584922312741038E-2</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.50568181818181812</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.43243243243243251</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.54088050314465419</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.2507652343388371E-2</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.70454545454545447</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.32432432432432429</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.48427672955974865</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6.2635530244624718E-2</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.71590909090909083</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.27927927927927926</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.18238993710691817</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.0546205002455694E-3</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.8235294117647134E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.3603603603603604</v>
+      </c>
+      <c r="F28" s="1">
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.1286792201937284E-2</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.34659090909090906</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.38738738738738748</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.58490566037735836</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.8051213843411038E-2</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.77840909090909094</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.22522522522522523</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.23899371069182374</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.2144610719486627E-2</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.38068181818181823</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.14414414414414412</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.49685534591194963</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.20475199804230157</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.25225225225225223</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.2578616352201259</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4.5094432434197541E-3</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.33522727272727271</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.64705882352941169</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.55345911949685522</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.29458573984658237</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.59659090909090895</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.30630630630630634</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.31446540880503149</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.4557494517862705E-2</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.4829545454545453</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.8823529411764761E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.39639639639639646</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.25157232704402516</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.65340909090909072</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.37837837837837834</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.62264150943396224</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.46243177123563045</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.7727272727272726</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.57657657657657657</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.38993710691823918</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7.8522702810519818E-3</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.78977272727272718</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.2072072072072072</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.11320754716981138</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.2356930017427815E-2</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.47727272727272724</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.26126126126126131</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.50943396226415105</v>
+      </c>
+      <c r="G39" s="1">
+        <v>9.2540882338603775E-2</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.72159090909090906</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.18918918918918917</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.38993710691823918</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.3004726331465803E-4</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.51704545454545447</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.41509433962264164</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.14365201419240059</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.32954545454545447</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.19819819819819823</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.18238993710691817</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.8158660068225891E-3</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.82954545454545447</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.56756756756756765</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.6163522012578615</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.234041908397945</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.2342342342342342</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.44654088050314478</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.12792303200189747</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.73295454545454541</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.27927927927927926</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.27044025157232687</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.0832230746575214E-3</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8.8235294117647134E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.15315315315315317</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.9245935112398826E-3</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.27927927927927926</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.43396226415094336</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.43419798021793082</v>
+      </c>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.70454545454545447</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.67647058823529427</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.22522522522522523</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.17610062893081746</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.6979339111129291E-2</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.43243243243243251</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.7924528301886794</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4.7256580563742505E-3</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.20588235294117652</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.19819819819819823</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.24528301886792447</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.1006121418050837</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.60227272727272718</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.21383647798742131</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8.2049303288712428E-4</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5110087</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5049196</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D51" si="0">B2/C2</f>
+        <v>1.0120595437372604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>824012</v>
+      </c>
+      <c r="C3" s="5">
+        <v>734420</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1219901418806677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>7646964</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7274078</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0512623043085323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3094615</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3026870</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0223812056679011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>42743817</v>
+      </c>
+      <c r="C6" s="5">
+        <v>39142565</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0920034749894392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6700221</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5814036</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1524216568318462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3994312</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3606607</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1074985436450382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1080673</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1005062</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0752301848045196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22985667</v>
+      </c>
+      <c r="C10" s="5">
+        <v>669256</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>34.345104115614951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11488279</v>
+      </c>
+      <c r="C11" s="5">
+        <v>21831949</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52621408194018771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1621371</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10792060</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1502373967527979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1945810</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1447029</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3446931609525448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13759863</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1904848</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2236015682091166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7075307</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12700641</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55708267007940782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3343626</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6815907</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49056215115611174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3093567</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3198613</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96715889043157144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4682196</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2938338</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5934844800019603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4879643</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4507583</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0825409093964549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1448549</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4627971</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31299872017348424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6840028</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1378931</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>4.960384529755296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8032825</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6179403</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.299935446838473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10393313</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7000474</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4846584674123495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6268716</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10041351</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62429009801569535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2915344</v>
+      </c>
+      <c r="C25" s="5">
+        <v>5718660</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50979495196427138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6564525</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2947209</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2273700304253956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1147243</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6171374</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18589750029734059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2034361</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1106522</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8385183484829042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3394042</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1964537</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7276549130914816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1565746</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3148141</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49735574105480029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9848108</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1387677</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0968301701332512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2185487</v>
+      </c>
+      <c r="C32" s="5">
+        <v>9270541</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23574535725584947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>21543613</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2117333</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>10.17488179705318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11512605</v>
+      </c>
+      <c r="C34" s="5">
+        <v>19848276</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58003047720618151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>858186</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10564320</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1234381389431592E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>12389837</v>
+      </c>
+      <c r="C36" s="5">
+        <v>777966</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>15.925936351974251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4121907</v>
+      </c>
+      <c r="C37" s="5">
+        <v>11767344</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35028354741732715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4750396</v>
+      </c>
+      <c r="C38" s="5">
+        <v>3992238</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1899080165060298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>13835102</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4254280</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2520431189296426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1204501</v>
+      </c>
+      <c r="C40" s="5">
+        <v>13015571</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2543077825782666E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5489860</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1097246</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0033082827369615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>923110</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5194274</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17771684743623459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7261958</v>
+      </c>
+      <c r="C43" s="5">
+        <v>896492</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1004158430861626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>31097658</v>
+      </c>
+      <c r="C44" s="5">
+        <v>6965740</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4643724859096094</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3499645</v>
+      </c>
+      <c r="C45" s="5">
+        <v>29570351</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11834979571260415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>720402</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3339738</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21570614221834167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9681315</v>
+      </c>
+      <c r="C47" s="5">
+        <v>647210</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>14.958537414440444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8707841</v>
+      </c>
+      <c r="C48" s="5">
+        <v>8658910</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0056509422086615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1882924</v>
+      </c>
+      <c r="C49" s="5">
+        <v>7743760</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24315371344153228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6300724</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1785618</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5285957018802452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>643140</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5881608</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10934764778611564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>